--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daher\PycharmProjects\WhatsApp_Bulk_Sender\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE1B646-3946-4831-AB29-23C2E53BDF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6163BDB3-60E3-4EF9-A324-BA2D6D68B9CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{800C7E94-4BFB-40A9-A8EF-D6B7CE645DA8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="1">
   <si>
     <t>0549139548</t>
   </si>
@@ -398,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88853CAA-E6D8-4D4A-8687-CFBCE1F8D47E}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -414,6 +414,16 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
